--- a/Astro_Vision_Task_Tracker_v2.xlsx
+++ b/Astro_Vision_Task_Tracker_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parak\Documents\Parakram\astro_project\astro_aspects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F8AA54-6803-4E38-B790-C9CEE024CE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C0C2CE-3529-4EE8-A051-3248C0C3B1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="645" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Detailed_Tasks" sheetId="1" r:id="rId1"/>
@@ -1230,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3833,6 +3833,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:D3"/>
@@ -3841,30 +3865,6 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
